--- a/lib/ValidationData.xlsx
+++ b/lib/ValidationData.xlsx
@@ -1,22 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\MechEng\ResearchProjects\DCleaver\KA-ME1DJC\Teaching\ME40343 Helicopters\Coursework\Moodle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\GitProjects\Heli\WindTurbineDesign\lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3665FE-40E2-4370-AE5F-B9A9083AE170}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="11475" windowHeight="5190" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="11475" windowHeight="5190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WTInducedCalcCheck" sheetId="4" r:id="rId1"/>
     <sheet name="WTSingleVelocityCheck" sheetId="1" r:id="rId2"/>
     <sheet name="WTVelocityRangeCheck" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -98,7 +106,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -198,6 +206,9 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -213,9 +224,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1558,7 +1566,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2021,7 +2028,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2053,7 +2059,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -2085,7 +2097,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -2122,7 +2140,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2157,7 +2181,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2187,7 +2217,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -2283,6 +2319,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2318,6 +2371,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2493,54 +2563,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M29" sqref="L11:M29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -2588,44 +2658,44 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
@@ -2646,26 +2716,26 @@
       <c r="P8" s="5"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
@@ -3169,7 +3239,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView topLeftCell="A24" workbookViewId="0">
@@ -3183,54 +3253,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="K3" s="13" t="s">
+      <c r="B3" s="16"/>
+      <c r="K3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="13"/>
+      <c r="L3" s="16"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -3450,11 +3520,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3471,61 +3541,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="K3" s="15" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="K3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -3566,22 +3636,22 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+      <c r="A5" s="11">
         <v>5.5</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="12">
         <v>11082.220890479201</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="12">
         <v>61947.5529174521</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="13">
         <v>0.11068015974965301</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="12">
         <v>10744858.132003199</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="12">
         <v>60061757.864312001</v>
       </c>
       <c r="K5" s="9"/>
@@ -3592,22 +3662,22 @@
       <c r="P5" s="9"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
+      <c r="A6" s="11">
         <v>6.5</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="12">
         <v>41733.484761313397</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="12">
         <v>102253.02311017401</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="13">
         <v>0.100865090269768</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="12">
         <v>36874796.959643602</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="12">
         <v>90348541.159752399</v>
       </c>
       <c r="K6" s="9"/>
@@ -3618,22 +3688,22 @@
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
+      <c r="A7" s="11">
         <v>7.5</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="12">
         <v>82294.881853811195</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="12">
         <v>157079.63267948999</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="13">
         <v>8.7525511639071296E-2</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="12">
         <v>63097418.362298101</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="12">
         <v>120436642.912744</v>
       </c>
       <c r="K7" s="9"/>
@@ -3644,22 +3714,22 @@
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
+      <c r="A8" s="11">
         <v>8.5</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="12">
         <v>131736.58962605201</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="12">
         <v>228661.40306795001</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="13">
         <v>7.2730060767989796E-2</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="12">
         <v>83931401.079305604</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="12">
         <v>145683685.80612999</v>
       </c>
       <c r="K8" s="9"/>
@@ -3670,22 +3740,22 @@
       <c r="P8" s="9"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
+      <c r="A9" s="11">
         <v>9.5</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="12">
         <v>186961.13923568901</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="12">
         <v>319232.355718109</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="13">
         <v>5.81010029376611E-2</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="12">
         <v>95156636.171660498</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="12">
         <v>162478027.527399</v>
       </c>
       <c r="K9" s="9"/>
@@ -3696,22 +3766,22 @@
       <c r="P9" s="9"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
+      <c r="A10" s="11">
         <v>10.5</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="12">
         <v>250690.25476569001</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="12">
         <v>431026.51207251998</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="13">
         <v>4.4749389778345798E-2</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="12">
         <v>98271746.695489794</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="12">
         <v>168964398.927358</v>
       </c>
       <c r="K10" s="9"/>
@@ -3722,22 +3792,22 @@
       <c r="P10" s="9"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
+      <c r="A11" s="11">
         <v>11.5</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="12">
         <v>321217.634918847</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="12">
         <v>566277.89357373398</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="13">
         <v>3.3301902577265299E-2</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="12">
         <v>93707107.445303097</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="12">
         <v>165197229.692635</v>
       </c>
       <c r="K11" s="9"/>
@@ -3748,22 +3818,22 @@
       <c r="P11" s="9"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+      <c r="A12" s="11">
         <v>12.5</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="12">
         <v>397575.10375054402</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="12">
         <v>727220.52166430396</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="13">
         <v>2.3986723148667E-2</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="12">
         <v>83539949.753529698</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="12">
         <v>152806262.93363199</v>
       </c>
       <c r="K12" s="9"/>
@@ -3774,22 +3844,22 @@
       <c r="P12" s="9"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
+      <c r="A13" s="11">
         <v>13.5</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="12">
         <v>478750.22153177101</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="12">
         <v>916088.417786784</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="13">
         <v>1.67452103568295E-2</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="12">
         <v>70226932.951051295</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="12">
         <v>134379216.96894199</v>
       </c>
       <c r="K13" s="9"/>
@@ -3800,22 +3870,22 @@
       <c r="P13" s="9"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
+      <c r="A14" s="11">
         <v>14.5</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="12">
         <v>559916.45550766401</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="12">
         <v>1135115.6033837299</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="13">
         <v>1.13428188707436E-2</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="12">
         <v>55635031.013132699</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="12">
         <v>112788597.61406</v>
       </c>
       <c r="K14" s="9"/>
@@ -3826,22 +3896,22 @@
       <c r="P14" s="9"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="16">
+      <c r="A15" s="11">
         <v>15.5</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="12">
         <v>638004.14921342896</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="12">
         <v>1386536.0998976801</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="13">
         <v>7.4623591449101898E-3</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="12">
         <v>41706501.0129916</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="12">
         <v>90638233.820619404</v>
       </c>
       <c r="K15" s="9"/>
@@ -3852,22 +3922,22 @@
       <c r="P15" s="9"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
+      <c r="A16" s="11">
         <v>16.5</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="12">
         <v>709748.37077522394</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="12">
         <v>1672583.9287712099</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="13">
         <v>4.7720994397246301E-3</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="12">
         <v>29670030.670091901</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="12">
         <v>69920014.625381798</v>
       </c>
       <c r="K16" s="9"/>
@@ -3878,22 +3948,22 @@
       <c r="P16" s="9"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="16">
+      <c r="A17" s="11">
         <v>17.5</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="12">
         <v>770569.075954161</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="12">
         <v>1995493.11144685</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="13">
         <v>2.9684303285226199E-3</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="12">
         <v>20037454.189887699</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="12">
         <v>51889704.706020698</v>
       </c>
       <c r="K17" s="9"/>
@@ -3904,22 +3974,22 @@
       <c r="P17" s="9"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="16">
+      <c r="A18" s="11">
         <v>18.5</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="12">
         <v>816655.93169255299</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="12">
         <v>2357497.66936717</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="13">
         <v>1.7971987782490701E-3</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="12">
         <v>12856991.0539444</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="12">
         <v>37115173.316538498</v>
       </c>
       <c r="K18" s="9"/>
@@ -3930,22 +4000,22 @@
       <c r="P18" s="9"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="16">
+      <c r="A19" s="11">
         <v>19.5</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="12">
         <v>843567.15161122102</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="12">
         <v>2760831.6239747098</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="13">
         <v>1.0596300187325899E-3</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="12">
         <v>7830293.1115765702</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="12">
         <v>25627030.1731654</v>
       </c>
       <c r="K19" s="9"/>
@@ -3956,22 +4026,22 @@
       <c r="P19" s="9"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="16">
+      <c r="A20" s="11">
         <v>20.5</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="12">
         <v>855869.38882472797</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="12">
         <v>3207728.9967120299</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="13">
         <v>6.0871346989075802E-4</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="12">
         <v>4563778.0148962904</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="12">
         <v>17104669.5489861</v>
       </c>
       <c r="K20" s="9"/>
@@ -3982,22 +4052,22 @@
       <c r="P20" s="9"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="16">
+      <c r="A21" s="11">
         <v>21.5</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="12">
         <v>844734.32815885497</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="12">
         <v>3700423.8090216802</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="13">
         <v>3.4084945285830002E-4</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="12">
         <v>2522242.5660168701</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="12">
         <v>11048877.892484101</v>
       </c>
       <c r="K21" s="9"/>
@@ -4008,22 +4078,22 @@
       <c r="P21" s="9"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" s="16">
+      <c r="A22" s="11">
         <v>22.5</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="12">
         <v>800588.31296659005</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="12">
         <v>4241150.0823462196</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="13">
         <v>1.8611271272152199E-4</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="12">
         <v>1305237.0452463799</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="12">
         <v>6914547.8547087498</v>
       </c>
       <c r="K22" s="9"/>
@@ -4034,22 +4104,22 @@
       <c r="P22" s="9"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23" s="16">
+      <c r="A23" s="11">
         <v>23.5</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="12">
         <v>753909.20100765896</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="12">
         <v>4832141.8381281896</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="13">
         <v>9.9131303091395403E-5</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="12">
         <v>654687.37321430305</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="12">
         <v>4196184.6901122201</v>
       </c>
       <c r="K23" s="9"/>
@@ -4060,22 +4130,22 @@
       <c r="P23" s="9"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" s="16">
+      <c r="A24" s="11">
         <v>24.5</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="12">
         <v>746834.37975413399</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="12">
         <v>5475633.0978101604</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="13">
         <v>5.1524232670873199E-5</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="12">
         <v>337085.39873775898</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="12">
         <v>2471439.47326669</v>
       </c>
       <c r="K24" s="9"/>

--- a/lib/ValidationData.xlsx
+++ b/lib/ValidationData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\GitProjects\Heli\WindTurbineDesign\lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3665FE-40E2-4370-AE5F-B9A9083AE170}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFF90FA8-0539-4CC0-B4EE-EC53DD614248}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="11475" windowHeight="5190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="11475" windowHeight="5190" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WTInducedCalcCheck" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
   <si>
     <t>[MT, MN] = WTSingleVelocity(20, 0.209, -0.00698, 1, 0, 20 ,1, 3.1416, 3)</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>V0</t>
-  </si>
-  <si>
-    <t>r</t>
   </si>
   <si>
     <t>Power (W):</t>
@@ -101,6 +98,12 @@
   </si>
   <si>
     <t>Ideal Power*Probability</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>RADIUS MOMENT TEST</t>
   </si>
 </sst>
 </file>
@@ -186,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -206,9 +209,18 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -257,171 +269,99 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19201885271880964"/>
+          <c:y val="5.1400554097404488E-2"/>
+          <c:w val="0.73377628898654423"/>
+          <c:h val="0.74002697579469234"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>BEMT</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575">
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>WTInducedCalcCheck!$A$11:$A$30</c:f>
+              <c:f>WTInducedCalcCheck!$H$11:$H$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13.5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15.5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17.5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19.5</c:v>
-                </c:pt>
+                <c:ptCount val="19"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>WTInducedCalcCheck!$B$11:$B$30</c:f>
+              <c:f>WTInducedCalcCheck!$I$11:$I$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0.15434490460227501</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.10779506767221</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.8501208680172805E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.8650061327337595E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.2954916749674303E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.9362965850426894E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.6957692131345101E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.5292585245916204E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.4134747783002294E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.3355777758705406E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.24512565379165E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.7759792295683503E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.8957517398532201E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.3212044433952397E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.6933170153937405E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7.0642376599687196E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7.5460773208321993E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7.6800827660323506E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7.8475161828324397E-2</c:v>
-                </c:pt>
+                <c:ptCount val="19"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-013A-4688-942C-5CB3B7D884D7}"/>
+              <c16:uniqueId val="{00000000-F418-493E-9156-89DDC6D9D628}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>BEMT Validation</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575">
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>WTInducedCalcCheck!$K$11:$K$30</c:f>
+              <c:f>WTInducedCalcCheck!$A$11:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>1.5</c:v>
                 </c:pt>
@@ -484,17 +424,74 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>WTInducedCalcCheck!$L$11:$L$30</c:f>
+              <c:f>WTInducedCalcCheck!$B$11:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.15434490460227501</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10779506767221</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.8501208680172805E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8650061327337595E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.2954916749674303E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.9362965850426894E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.6957692131345101E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.5292585245916204E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.4134747783002294E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.3355777758705406E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.24512565379165E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.7759792295683503E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.8957517398532201E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.3212044433952397E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.6933170153937405E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.0642376599687196E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.5460773208321993E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.6800827660323506E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.8475161828324397E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-013A-4688-942C-5CB3B7D884D7}"/>
+              <c16:uniqueId val="{00000001-F418-493E-9156-89DDC6D9D628}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -506,40 +503,98 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="208779736"/>
-        <c:axId val="205220904"/>
+        <c:axId val="209058248"/>
+        <c:axId val="209058640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="208779736"/>
+        <c:axId val="209058248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Radius, m</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205220904"/>
+        <c:crossAx val="209058640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="205220904"/>
+        <c:axId val="209058640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>a</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="4.0030393694139618E-2"/>
+              <c:y val="0.39610126859142597"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208779736"/>
+        <c:crossAx val="209058248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.6490829726415196"/>
+          <c:y val="7.7168270632837557E-2"/>
+          <c:w val="0.28507561568774809"/>
+          <c:h val="0.2299227179935841"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -568,171 +623,99 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19201885271880964"/>
+          <c:y val="5.1400554097404488E-2"/>
+          <c:w val="0.73377628898654423"/>
+          <c:h val="0.74002697579469234"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>BEMT</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575">
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>WTInducedCalcCheck!$A$11:$A$30</c:f>
+              <c:f>WTInducedCalcCheck!$H$11:$H$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13.5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15.5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17.5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19.5</c:v>
-                </c:pt>
+                <c:ptCount val="19"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>WTInducedCalcCheck!$C$11:$C$30</c:f>
+              <c:f>WTInducedCalcCheck!$J$11:$J$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0.217344912398411</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.0608008655573405E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.2228343036939302E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.4968455375095402E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.5398060347271299E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.93892245499875E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.5308615030386699E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.2387427916952401E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.02157136513995E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8.5540854635064202E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.1319488669607904E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.0392892492842796E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.6081667039303102E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.9530840939653104E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7.5036286827587497E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7.4860912449956404E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7.5521249898024704E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7.18710428851305E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6.8964345026221799E-3</c:v>
-                </c:pt>
+                <c:ptCount val="19"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E8AA-42A3-B146-C971532F41A3}"/>
+              <c16:uniqueId val="{00000000-1C8B-4BF7-8382-1BF2AF8E8187}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>BEMT Validation</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575">
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>WTInducedCalcCheck!$K$11:$K$30</c:f>
+              <c:f>WTInducedCalcCheck!$A$11:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>1.5</c:v>
                 </c:pt>
@@ -795,17 +778,74 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>WTInducedCalcCheck!$M$11:$M$30</c:f>
+              <c:f>WTInducedCalcCheck!$C$11:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.217344912398411</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0608008655573405E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2228343036939302E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4968455375095402E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5398060347271299E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.93892245499875E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5308615030386699E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2387427916952401E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.02157136513995E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.5540854635064202E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.1319488669607904E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.0392892492842796E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.6081667039303102E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.9530840939653104E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.5036286827587497E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.4860912449956404E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.5521249898024704E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.18710428851305E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.8964345026221799E-3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E8AA-42A3-B146-C971532F41A3}"/>
+              <c16:uniqueId val="{00000001-1C8B-4BF7-8382-1BF2AF8E8187}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -817,40 +857,98 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="208726304"/>
-        <c:axId val="208726688"/>
+        <c:axId val="209058248"/>
+        <c:axId val="209058640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="208726304"/>
+        <c:axId val="209058248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Radius, m</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208726688"/>
+        <c:crossAx val="209058640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="208726688"/>
+        <c:axId val="209058640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>a'</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="4.0030393694139618E-2"/>
+              <c:y val="0.39610126859142597"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208726304"/>
+        <c:crossAx val="209058248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.6490829726415196"/>
+          <c:y val="7.7168270632837557E-2"/>
+          <c:w val="0.28507561568774809"/>
+          <c:h val="0.2299227179935841"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -879,168 +977,48 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19201885271880964"/>
+          <c:y val="5.1400554097404488E-2"/>
+          <c:w val="0.73377628898654423"/>
+          <c:h val="0.74002697579469234"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>BEMT</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575">
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>WTSingleVelocityCheck!$A$5:$A$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13.5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15.5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17.5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>WTSingleVelocityCheck!$B$5:$B$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>199.99366228697801</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>407.23256375753198</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>658.05629982620701</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>946.540935050543</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1262.97306631931</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1597.67653404455</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1942.8181213881501</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2292.59235808208</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2642.8207234318702</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2990.42827973774</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3278.7804197181499</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2990.05111032279</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3440.0049062599501</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6402.4285332448499</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8406.2184704750907</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>10076.552142180701</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>12065.1148557613</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>13545.279382107799</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>15193.5723664255</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F13D-47B8-BD24-249FFACCC1FA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>WTSingleVelocityCheck!$K$5:$K$24</c:f>
+              <c:f>WTSingleVelocityCheck!$E$5:$E$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1049,7 +1027,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>WTSingleVelocityCheck!$L$5:$L$25</c:f>
+              <c:f>WTSingleVelocityCheck!$F$5:$F$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1059,7 +1037,169 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F13D-47B8-BD24-249FFACCC1FA}"/>
+              <c16:uniqueId val="{00000000-9FDB-4998-ACA2-513C6CC974A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>BEMT Validation</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>WTSingleVelocityCheck!$A$5:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>WTSingleVelocityCheck!$B$5:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>199.99366228697801</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>407.23256375753198</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>658.05629982620701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>946.540935050543</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1262.97306631931</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1597.67653404455</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1942.8181213881501</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2292.59235808208</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2642.8207234318702</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2990.42827973774</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3278.7804197181499</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2990.05111032279</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3440.0049062599501</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6402.4285332448499</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8406.2184704750907</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10076.552142180701</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12065.1148557613</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13545.279382107799</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15193.5723664255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9FDB-4998-ACA2-513C6CC974A4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1071,40 +1211,90 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="204748216"/>
-        <c:axId val="204748608"/>
+        <c:axId val="209058248"/>
+        <c:axId val="209058640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="204748216"/>
+        <c:axId val="209058248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Radius, m</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204748608"/>
+        <c:crossAx val="209058640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="204748608"/>
+        <c:axId val="209058640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Mt, Nm</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204748216"/>
+        <c:crossAx val="209058248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21297189642180778"/>
+          <c:y val="3.55016039661709E-2"/>
+          <c:w val="0.28507561568774809"/>
+          <c:h val="0.2299227179935841"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1133,189 +1323,57 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19201885271880964"/>
+          <c:y val="5.1400554097404488E-2"/>
+          <c:w val="0.73377628898654423"/>
+          <c:h val="0.74002697579469234"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Power1 - Real</c:v>
+            <c:v>BEMT</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575">
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>WTVelocityRangeCheck!$A$5:$A$25</c:f>
+              <c:f>WTVelocityRangeCheck!$H$5:$H$26</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>17.5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>18.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>19.5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>21.5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>22.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>23.5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>24.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>WTVelocityRangeCheck!$B$5:$B$25</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>11082.220890479201</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>41733.484761313397</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>82294.881853811195</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>131736.58962605201</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>186961.13923568901</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>250690.25476569001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>321217.634918847</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>397575.10375054402</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>478750.22153177101</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>559916.45550766401</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>638004.14921342896</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>709748.37077522394</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>770569.075954161</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>816655.93169255299</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>843567.15161122102</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>855869.38882472797</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>844734.32815885497</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>800588.31296659005</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>753909.20100765896</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>746834.37975413399</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D2AE-44C3-9D65-CF013F8D71E2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Power2-Real</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>WTVelocityRangeCheck!$K$5:$K$26</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="22"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>WTVelocityRangeCheck!$L$5:$L$26</c:f>
+              <c:f>WTVelocityRangeCheck!$I$5:$I$26</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="22"/>
@@ -1330,16 +1388,246 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="3"/>
+          <c:order val="1"/>
           <c:tx>
-            <c:v>Power1 - Ideal</c:v>
+            <c:v>ADT Ideal</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575">
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>WTVelocityRangeCheck!$H$5:$H$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="21"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>WTVelocityRangeCheck!$J$5:$J$25</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="21"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D2AE-44C3-9D65-CF013F8D71E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>BEMT - Validation</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>WTVelocityRangeCheck!$A$5:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>WTVelocityRangeCheck!$B$5:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>11082.220890479201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41733.484761313397</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82294.881853811195</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>131736.58962605201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>186961.13923568901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250690.25476569001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>321217.634918847</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>397575.10375054402</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>478750.22153177101</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>559916.45550766401</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>638004.14921342803</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>709748.37077522301</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>770569.075954161</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>816655.93169254996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>843567.15161121299</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>855869.38882471703</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>844734.32815884403</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>800588.31296658202</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>753909.20100765803</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>746834.37975413399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D2AE-44C3-9D65-CF013F8D71E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>ADT Ideal - Validation</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>WTVelocityRangeCheck!$A$5:$A$25</c:f>
@@ -1416,64 +1704,64 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>61947.5529174521</c:v>
+                  <c:v>75885.752323878798</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>102253.02311017401</c:v>
+                  <c:v>125259.953309964</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>157079.63267948999</c:v>
+                  <c:v>192422.550032375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>228661.40306795001</c:v>
+                  <c:v>280110.218758239</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>319232.355718109</c:v>
+                  <c:v>391059.63575468399</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>431026.51207251998</c:v>
+                  <c:v>528007.47728883696</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>566277.89357373398</c:v>
+                  <c:v>693690.41962782398</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>727220.52166430396</c:v>
+                  <c:v>890845.13903877197</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>916088.417786784</c:v>
+                  <c:v>1122208.31178881</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1135115.6033837299</c:v>
+                  <c:v>1390516.6141450601</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1386536.0998976801</c:v>
+                  <c:v>1698506.72237466</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1672583.9287712099</c:v>
+                  <c:v>2048915.3127447299</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1995493.11144685</c:v>
+                  <c:v>2444479.0615223902</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2357497.66936717</c:v>
+                  <c:v>2887934.6449747798</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2760831.6239747098</c:v>
+                  <c:v>3382018.7393690199</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3207728.9967120299</c:v>
+                  <c:v>3929468.0209722398</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3700423.8090216802</c:v>
+                  <c:v>4533019.1660515601</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4241150.0823462196</c:v>
+                  <c:v>5195408.8508741204</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4832141.8381281896</c:v>
+                  <c:v>5919373.7517070398</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5475633.0978101604</c:v>
+                  <c:v>6707650.5448174402</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1482,42 +1770,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D2AE-44C3-9D65-CF013F8D71E2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>Power2 - Ideal</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>WTVelocityRangeCheck!$K$5:$K$25</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="21"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>WTVelocityRangeCheck!$M$5:$M$25</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="21"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-D2AE-44C3-9D65-CF013F8D71E2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1539,6 +1791,24 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Windspeed, m/s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -1551,21 +1821,49 @@
         <c:axId val="209058640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1500000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Power, W</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0E+00" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="209058248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2000000"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18824755509803509"/>
+          <c:y val="3.5501603966170893E-2"/>
+          <c:w val="0.37674223063147705"/>
+          <c:h val="0.43825605132691747"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1596,21 +1894,143 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19201885271880964"/>
+          <c:y val="5.1400554097404488E-2"/>
+          <c:w val="0.73377628898654423"/>
+          <c:h val="0.74002697579469234"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Power1 - Real</c:v>
+            <c:v>BEMT</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575">
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>WTVelocityRangeCheck!$H$5:$H$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="22"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>WTVelocityRangeCheck!$L$5:$L$26</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="22"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3C71-4730-8BFD-A64ED3F16586}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ADT Ideal</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>WTVelocityRangeCheck!$H$5:$H$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="21"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>WTVelocityRangeCheck!$M$5:$M$25</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="21"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3C71-4730-8BFD-A64ED3F16586}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>BEMT - Validation</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>WTVelocityRangeCheck!$A$5:$A$25</c:f>
@@ -1696,7 +2116,7 @@
                   <c:v>63097418.362298101</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>83931401.079305604</c:v>
+                  <c:v>83931401.0793055</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>95156636.171660498</c:v>
@@ -1711,7 +2131,7 @@
                   <c:v>83539949.753529698</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>70226932.951051295</c:v>
+                  <c:v>70226932.951051205</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>55635031.013132699</c:v>
@@ -1726,25 +2146,25 @@
                   <c:v>20037454.189887699</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12856991.0539444</c:v>
+                  <c:v>12856991.053944301</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7830293.1115765702</c:v>
+                  <c:v>7830293.1115765003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4563778.0148962904</c:v>
+                  <c:v>4563778.0148962298</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2522242.5660168701</c:v>
+                  <c:v>2522242.56601683</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1305237.0452463799</c:v>
+                  <c:v>1305237.0452463699</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>654687.37321430305</c:v>
+                  <c:v>654687.37321430095</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>337085.39873775898</c:v>
+                  <c:v>337085.39873776003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1752,57 +2172,33 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9244-41A5-92A5-E6A459521B35}"/>
+              <c16:uniqueId val="{00000002-3C71-4730-8BFD-A64ED3F16586}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="2"/>
+          <c:order val="3"/>
           <c:tx>
-            <c:v>Power2-Real</c:v>
+            <c:v>ADT Ideal - Validation</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575">
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>WTVelocityRangeCheck!$K$5:$K$26</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="22"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>WTVelocityRangeCheck!$O$5:$O$26</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="22"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9244-41A5-92A5-E6A459521B35}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Power1 - Ideal</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
               <a:noFill/>
-            </a:ln>
-          </c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>WTVelocityRangeCheck!$A$5:$A$25</c:f>
@@ -1879,64 +2275,64 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>60061757.864312001</c:v>
+                  <c:v>73575653.383782193</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90348541.159752399</c:v>
+                  <c:v>110676962.920697</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>120436642.912744</c:v>
+                  <c:v>147534887.568111</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>145683685.80612999</c:v>
+                  <c:v>178462515.11251</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>162478027.527399</c:v>
+                  <c:v>199035583.721064</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>168964398.927358</c:v>
+                  <c:v>206981388.686014</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>165197229.692635</c:v>
+                  <c:v>202366606.373478</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>152806262.93363199</c:v>
+                  <c:v>187187672.09369901</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>134379216.96894199</c:v>
+                  <c:v>164614540.78695399</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>112788597.61406</c:v>
+                  <c:v>138166032.077223</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>90638233.820619404</c:v>
+                  <c:v>111031836.430259</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>69920014.625381798</c:v>
+                  <c:v>85652017.916092694</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>51889704.706020698</c:v>
+                  <c:v>63564888.264875397</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>37115173.316538498</c:v>
+                  <c:v>45466087.312759697</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25627030.1731654</c:v>
+                  <c:v>31393111.9621276</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17104669.5489861</c:v>
+                  <c:v>20953220.197508</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11048877.892484101</c:v>
+                  <c:v>13534875.418292999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6914547.8547087498</c:v>
+                  <c:v>8470321.1220182106</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4196184.6901122201</c:v>
+                  <c:v>5140326.2453874703</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2471439.47326669</c:v>
+                  <c:v>3027513.3547516898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1944,43 +2340,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9244-41A5-92A5-E6A459521B35}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>Power2 - Ideal</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>WTVelocityRangeCheck!$K$5:$K$25</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="21"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>WTVelocityRangeCheck!$P$5:$P$25</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="21"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-9244-41A5-92A5-E6A459521B35}"/>
+              <c16:uniqueId val="{00000003-3C71-4730-8BFD-A64ED3F16586}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1992,42 +2352,96 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="209059816"/>
-        <c:axId val="209060208"/>
+        <c:axId val="209058248"/>
+        <c:axId val="209058640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="209059816"/>
+        <c:axId val="209058248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Windspeed, m/s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209060208"/>
+        <c:crossAx val="209058640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="209060208"/>
+        <c:axId val="209058640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Power*Probability</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="7.0717394856212841E-3"/>
+              <c:y val="0.25661052785068533"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.0E+00" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209059816"/>
+        <c:crossAx val="209058248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.60741631508829508"/>
+          <c:y val="4.4760863225430152E-2"/>
+          <c:w val="0.37674223063147705"/>
+          <c:h val="0.43825605132691747"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2046,23 +2460,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>188258</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2084,23 +2498,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2127,27 +2541,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2168,16 +2584,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>368113</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>23532</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>99732</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2204,23 +2620,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>418540</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>40902</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>466166</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>117102</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2566,35 +2982,690 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11:M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>7.8299999999999995E-2</v>
+      </c>
+      <c r="H4">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="I4">
+        <v>0.29049999999999998</v>
+      </c>
+      <c r="J4">
+        <v>1.1392</v>
+      </c>
+      <c r="K4">
+        <v>0.30730000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0.15434490460227501</v>
+      </c>
+      <c r="C11">
+        <v>0.217344912398411</v>
+      </c>
+      <c r="D11">
+        <v>1.24379661389317</v>
+      </c>
+      <c r="E11">
+        <v>2.0569242650461601</v>
+      </c>
+      <c r="F11">
+        <v>0.68246476376144305</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0.10779506767221</v>
+      </c>
+      <c r="C12">
+        <v>9.0608008655573405E-2</v>
+      </c>
+      <c r="D12">
+        <v>1.12327559733376</v>
+      </c>
+      <c r="E12">
+        <v>2.0565830229639599</v>
+      </c>
+      <c r="F12">
+        <v>0.67881582300742305</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="B13" s="6">
+        <v>8.8501208680172805E-2</v>
+      </c>
+      <c r="C13">
+        <v>5.2228343036939302E-2</v>
+      </c>
+      <c r="D13">
+        <v>1.00530089715747</v>
+      </c>
+      <c r="E13">
+        <v>2.0295382316386701</v>
+      </c>
+      <c r="F13">
+        <v>0.65844887412987496</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="B14" s="6">
+        <v>7.8650061327337595E-2</v>
+      </c>
+      <c r="C14">
+        <v>3.4968455375095402E-2</v>
+      </c>
+      <c r="D14">
+        <v>0.89973103178625902</v>
+      </c>
+      <c r="E14">
+        <v>1.97381398814902</v>
+      </c>
+      <c r="F14">
+        <v>0.62029161404487798</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="B15" s="6">
+        <v>7.2954916749674303E-2</v>
+      </c>
+      <c r="C15">
+        <v>2.5398060347271299E-2</v>
+      </c>
+      <c r="D15">
+        <v>0.80812384468049403</v>
+      </c>
+      <c r="E15">
+        <v>1.8954064006781299</v>
+      </c>
+      <c r="F15">
+        <v>0.570046935029487</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>6.5</v>
+      </c>
+      <c r="B16" s="6">
+        <v>6.9362965850426894E-2</v>
+      </c>
+      <c r="C16">
+        <v>1.93892245499875E-2</v>
+      </c>
+      <c r="D16">
+        <v>0.72959366788959601</v>
+      </c>
+      <c r="E16">
+        <v>1.8032943909835699</v>
+      </c>
+      <c r="F16">
+        <v>0.51464981878113403</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="B17" s="6">
+        <v>6.6957692131345101E-2</v>
+      </c>
+      <c r="C17">
+        <v>1.5308615030386699E-2</v>
+      </c>
+      <c r="D17">
+        <v>0.66248128670416295</v>
+      </c>
+      <c r="E17">
+        <v>1.70582856994218</v>
+      </c>
+      <c r="F17">
+        <v>0.45944150404238598</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>8.5</v>
+      </c>
+      <c r="B18" s="6">
+        <v>6.5292585245916204E-2</v>
+      </c>
+      <c r="C18">
+        <v>1.2387427916952401E-2</v>
+      </c>
+      <c r="D18">
+        <v>0.60501851614303404</v>
+      </c>
+      <c r="E18">
+        <v>1.60920075232454</v>
+      </c>
+      <c r="F18">
+        <v>0.40761076081468101</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>9.5</v>
+      </c>
+      <c r="B19" s="6">
+        <v>6.4134747783002294E-2</v>
+      </c>
+      <c r="C19">
+        <v>1.02157136513995E-2</v>
+      </c>
+      <c r="D19">
+        <v>0.55559804671361201</v>
+      </c>
+      <c r="E19">
+        <v>1.5173554167508201</v>
+      </c>
+      <c r="F19">
+        <v>0.360650248340802</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>10.5</v>
+      </c>
+      <c r="B20" s="6">
+        <v>6.3355777758705406E-2</v>
+      </c>
+      <c r="C20">
+        <v>8.5540854635064202E-3</v>
+      </c>
+      <c r="D20">
+        <v>0.51284734457314196</v>
+      </c>
+      <c r="E20">
+        <v>1.43245588954467</v>
+      </c>
+      <c r="F20">
+        <v>0.31897474874688903</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>11.5</v>
+      </c>
+      <c r="B21" s="6">
+        <v>6.24512565379165E-2</v>
+      </c>
+      <c r="C21">
+        <v>7.1319488669607904E-3</v>
+      </c>
+      <c r="D21">
+        <v>0.475857398001585</v>
+      </c>
+      <c r="E21">
+        <v>1.34674629246197</v>
+      </c>
+      <c r="F21">
+        <v>0.27781285790617799</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>12.5</v>
+      </c>
+      <c r="B22" s="6">
+        <v>5.7759792295683503E-2</v>
+      </c>
+      <c r="C22">
+        <v>5.0392892492842796E-3</v>
+      </c>
+      <c r="D22">
+        <v>0.44548032635205198</v>
+      </c>
+      <c r="E22">
+        <v>1.1918681569101299</v>
+      </c>
+      <c r="F22">
+        <v>0.20416607781565599</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>13.5</v>
+      </c>
+      <c r="B23" s="6">
+        <v>5.8957517398532201E-2</v>
+      </c>
+      <c r="C23">
+        <v>4.6081667039303102E-3</v>
+      </c>
+      <c r="D23">
+        <v>0.41597482834900901</v>
+      </c>
+      <c r="E23">
+        <v>1.15696695449238</v>
+      </c>
+      <c r="F23">
+        <v>0.19175322986538701</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>14.5</v>
+      </c>
+      <c r="B24" s="6">
+        <v>6.3212044433952397E-2</v>
+      </c>
+      <c r="C24">
+        <v>6.9530840939653104E-3</v>
+      </c>
+      <c r="D24">
+        <v>0.38779148748977399</v>
+      </c>
+      <c r="E24">
+        <v>1.17209131653865</v>
+      </c>
+      <c r="F24">
+        <v>0.29363313478653702</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>15.5</v>
+      </c>
+      <c r="B25" s="6">
+        <v>6.6933170153937405E-2</v>
+      </c>
+      <c r="C25">
+        <v>7.5036286827587497E-3</v>
+      </c>
+      <c r="D25">
+        <v>0.36349215062405199</v>
+      </c>
+      <c r="E25">
+        <v>1.1774888155518</v>
+      </c>
+      <c r="F25">
+        <v>0.32137939377765801</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>16.5</v>
+      </c>
+      <c r="B26" s="6">
+        <v>7.0642376599687196E-2</v>
+      </c>
+      <c r="C26">
+        <v>7.4860912449956404E-3</v>
+      </c>
+      <c r="D26">
+        <v>0.34194477200701701</v>
+      </c>
+      <c r="E26">
+        <v>1.18141817930278</v>
+      </c>
+      <c r="F26">
+        <v>0.32447178405893801</v>
+      </c>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>17.5</v>
+      </c>
+      <c r="B27" s="6">
+        <v>7.5460773208321993E-2</v>
+      </c>
+      <c r="C27">
+        <v>7.5521249898024704E-3</v>
+      </c>
+      <c r="D27">
+        <v>0.32219406847591298</v>
+      </c>
+      <c r="E27">
+        <v>1.19979598140673</v>
+      </c>
+      <c r="F27">
+        <v>0.33005986811366</v>
+      </c>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>18.5</v>
+      </c>
+      <c r="B28" s="6">
+        <v>7.6800827660323506E-2</v>
+      </c>
+      <c r="C28">
+        <v>7.18710428851305E-3</v>
+      </c>
+      <c r="D28">
+        <v>0.30555950731397902</v>
+      </c>
+      <c r="E28">
+        <v>1.16679325897566</v>
+      </c>
+      <c r="F28">
+        <v>0.31728737246612498</v>
+      </c>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>19.5</v>
+      </c>
+      <c r="B29" s="6">
+        <v>7.8475161828324397E-2</v>
+      </c>
+      <c r="C29">
+        <v>6.8964345026221799E-3</v>
+      </c>
+      <c r="D29">
+        <v>0.29036098167713997</v>
+      </c>
+      <c r="E29">
+        <v>1.1402901371966201</v>
+      </c>
+      <c r="F29">
+        <v>0.306931001403349</v>
+      </c>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A7:P7"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="H9:M9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:P2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -2613,706 +3684,26 @@
       <c r="P2" s="16"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G4">
-        <v>7.8299999999999995E-2</v>
-      </c>
-      <c r="H4">
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="I4">
-        <v>0.29049999999999998</v>
-      </c>
-      <c r="J4">
-        <v>1.1392</v>
-      </c>
-      <c r="K4">
-        <v>0.30730000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="E3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="B11" s="6">
-        <v>0.15434490460227501</v>
-      </c>
-      <c r="C11">
-        <v>0.217344912398411</v>
-      </c>
-      <c r="D11">
-        <v>1.24379661389317</v>
-      </c>
-      <c r="E11">
-        <v>2.0569242650461601</v>
-      </c>
-      <c r="F11">
-        <v>0.68246476376144305</v>
-      </c>
-      <c r="K11" s="6">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="B12" s="6">
-        <v>0.10779506767221</v>
-      </c>
-      <c r="C12">
-        <v>9.0608008655573405E-2</v>
-      </c>
-      <c r="D12">
-        <v>1.12327559733376</v>
-      </c>
-      <c r="E12">
-        <v>2.0565830229639599</v>
-      </c>
-      <c r="F12">
-        <v>0.67881582300742305</v>
-      </c>
-      <c r="K12" s="6">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>3.5</v>
-      </c>
-      <c r="B13" s="6">
-        <v>8.8501208680172805E-2</v>
-      </c>
-      <c r="C13">
-        <v>5.2228343036939302E-2</v>
-      </c>
-      <c r="D13">
-        <v>1.00530089715747</v>
-      </c>
-      <c r="E13">
-        <v>2.0295382316386701</v>
-      </c>
-      <c r="F13">
-        <v>0.65844887412987496</v>
-      </c>
-      <c r="K13" s="6">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="B14" s="6">
-        <v>7.8650061327337595E-2</v>
-      </c>
-      <c r="C14">
-        <v>3.4968455375095402E-2</v>
-      </c>
-      <c r="D14">
-        <v>0.89973103178625902</v>
-      </c>
-      <c r="E14">
-        <v>1.97381398814902</v>
-      </c>
-      <c r="F14">
-        <v>0.62029161404487798</v>
-      </c>
-      <c r="K14" s="6">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>5.5</v>
-      </c>
-      <c r="B15" s="6">
-        <v>7.2954916749674303E-2</v>
-      </c>
-      <c r="C15">
-        <v>2.5398060347271299E-2</v>
-      </c>
-      <c r="D15">
-        <v>0.80812384468049403</v>
-      </c>
-      <c r="E15">
-        <v>1.8954064006781299</v>
-      </c>
-      <c r="F15">
-        <v>0.570046935029487</v>
-      </c>
-      <c r="K15" s="6">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>6.5</v>
-      </c>
-      <c r="B16" s="6">
-        <v>6.9362965850426894E-2</v>
-      </c>
-      <c r="C16">
-        <v>1.93892245499875E-2</v>
-      </c>
-      <c r="D16">
-        <v>0.72959366788959601</v>
-      </c>
-      <c r="E16">
-        <v>1.8032943909835699</v>
-      </c>
-      <c r="F16">
-        <v>0.51464981878113403</v>
-      </c>
-      <c r="K16" s="6">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>7.5</v>
-      </c>
-      <c r="B17" s="6">
-        <v>6.6957692131345101E-2</v>
-      </c>
-      <c r="C17">
-        <v>1.5308615030386699E-2</v>
-      </c>
-      <c r="D17">
-        <v>0.66248128670416295</v>
-      </c>
-      <c r="E17">
-        <v>1.70582856994218</v>
-      </c>
-      <c r="F17">
-        <v>0.45944150404238598</v>
-      </c>
-      <c r="K17" s="6">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>8.5</v>
-      </c>
-      <c r="B18" s="6">
-        <v>6.5292585245916204E-2</v>
-      </c>
-      <c r="C18">
-        <v>1.2387427916952401E-2</v>
-      </c>
-      <c r="D18">
-        <v>0.60501851614303404</v>
-      </c>
-      <c r="E18">
-        <v>1.60920075232454</v>
-      </c>
-      <c r="F18">
-        <v>0.40761076081468101</v>
-      </c>
-      <c r="K18" s="6">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>9.5</v>
-      </c>
-      <c r="B19" s="6">
-        <v>6.4134747783002294E-2</v>
-      </c>
-      <c r="C19">
-        <v>1.02157136513995E-2</v>
-      </c>
-      <c r="D19">
-        <v>0.55559804671361201</v>
-      </c>
-      <c r="E19">
-        <v>1.5173554167508201</v>
-      </c>
-      <c r="F19">
-        <v>0.360650248340802</v>
-      </c>
-      <c r="K19" s="6">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>10.5</v>
-      </c>
-      <c r="B20" s="6">
-        <v>6.3355777758705406E-2</v>
-      </c>
-      <c r="C20">
-        <v>8.5540854635064202E-3</v>
-      </c>
-      <c r="D20">
-        <v>0.51284734457314196</v>
-      </c>
-      <c r="E20">
-        <v>1.43245588954467</v>
-      </c>
-      <c r="F20">
-        <v>0.31897474874688903</v>
-      </c>
-      <c r="K20" s="6">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>11.5</v>
-      </c>
-      <c r="B21" s="6">
-        <v>6.24512565379165E-2</v>
-      </c>
-      <c r="C21">
-        <v>7.1319488669607904E-3</v>
-      </c>
-      <c r="D21">
-        <v>0.475857398001585</v>
-      </c>
-      <c r="E21">
-        <v>1.34674629246197</v>
-      </c>
-      <c r="F21">
-        <v>0.27781285790617799</v>
-      </c>
-      <c r="K21" s="6">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>12.5</v>
-      </c>
-      <c r="B22" s="6">
-        <v>5.7759792295683503E-2</v>
-      </c>
-      <c r="C22">
-        <v>5.0392892492842796E-3</v>
-      </c>
-      <c r="D22">
-        <v>0.44548032635205198</v>
-      </c>
-      <c r="E22">
-        <v>1.1918681569101299</v>
-      </c>
-      <c r="F22">
-        <v>0.20416607781565599</v>
-      </c>
-      <c r="K22" s="6">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>13.5</v>
-      </c>
-      <c r="B23" s="6">
-        <v>5.8957517398532201E-2</v>
-      </c>
-      <c r="C23">
-        <v>4.6081667039303102E-3</v>
-      </c>
-      <c r="D23">
-        <v>0.41597482834900901</v>
-      </c>
-      <c r="E23">
-        <v>1.15696695449238</v>
-      </c>
-      <c r="F23">
-        <v>0.19175322986538701</v>
-      </c>
-      <c r="K23" s="6">
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>14.5</v>
-      </c>
-      <c r="B24" s="6">
-        <v>6.3212044433952397E-2</v>
-      </c>
-      <c r="C24">
-        <v>6.9530840939653104E-3</v>
-      </c>
-      <c r="D24">
-        <v>0.38779148748977399</v>
-      </c>
-      <c r="E24">
-        <v>1.17209131653865</v>
-      </c>
-      <c r="F24">
-        <v>0.29363313478653702</v>
-      </c>
-      <c r="K24" s="6">
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>15.5</v>
-      </c>
-      <c r="B25" s="6">
-        <v>6.6933170153937405E-2</v>
-      </c>
-      <c r="C25">
-        <v>7.5036286827587497E-3</v>
-      </c>
-      <c r="D25">
-        <v>0.36349215062405199</v>
-      </c>
-      <c r="E25">
-        <v>1.1774888155518</v>
-      </c>
-      <c r="F25">
-        <v>0.32137939377765801</v>
-      </c>
-      <c r="K25" s="6">
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
-        <v>16.5</v>
-      </c>
-      <c r="B26" s="6">
-        <v>7.0642376599687196E-2</v>
-      </c>
-      <c r="C26">
-        <v>7.4860912449956404E-3</v>
-      </c>
-      <c r="D26">
-        <v>0.34194477200701701</v>
-      </c>
-      <c r="E26">
-        <v>1.18141817930278</v>
-      </c>
-      <c r="F26">
-        <v>0.32447178405893801</v>
-      </c>
-      <c r="K26" s="6">
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
-        <v>17.5</v>
-      </c>
-      <c r="B27" s="6">
-        <v>7.5460773208321993E-2</v>
-      </c>
-      <c r="C27">
-        <v>7.5521249898024704E-3</v>
-      </c>
-      <c r="D27">
-        <v>0.32219406847591298</v>
-      </c>
-      <c r="E27">
-        <v>1.19979598140673</v>
-      </c>
-      <c r="F27">
-        <v>0.33005986811366</v>
-      </c>
-      <c r="K27" s="6">
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
-        <v>18.5</v>
-      </c>
-      <c r="B28" s="6">
-        <v>7.6800827660323506E-2</v>
-      </c>
-      <c r="C28">
-        <v>7.18710428851305E-3</v>
-      </c>
-      <c r="D28">
-        <v>0.30555950731397902</v>
-      </c>
-      <c r="E28">
-        <v>1.16679325897566</v>
-      </c>
-      <c r="F28">
-        <v>0.31728737246612498</v>
-      </c>
-      <c r="K28" s="6">
-        <v>18.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
-        <v>19.5</v>
-      </c>
-      <c r="B29" s="6">
-        <v>7.8475161828324397E-2</v>
-      </c>
-      <c r="C29">
-        <v>6.8964345026221799E-3</v>
-      </c>
-      <c r="D29">
-        <v>0.29036098167713997</v>
-      </c>
-      <c r="E29">
-        <v>1.1402901371966201</v>
-      </c>
-      <c r="F29">
-        <v>0.306931001403349</v>
-      </c>
-      <c r="K29" s="6">
-        <v>19.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A7:P7"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="K9:P9"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P26"/>
-  <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:K23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="K3" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="16"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" s="8" t="s">
+      <c r="E4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3323,7 +3714,7 @@
       <c r="B5">
         <v>199.99366228697801</v>
       </c>
-      <c r="K5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
@@ -3332,7 +3723,7 @@
       <c r="B6">
         <v>407.23256375753198</v>
       </c>
-      <c r="K6" s="6"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
@@ -3341,7 +3732,7 @@
       <c r="B7">
         <v>658.05629982620701</v>
       </c>
-      <c r="K7" s="6"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
@@ -3350,7 +3741,7 @@
       <c r="B8">
         <v>946.540935050543</v>
       </c>
-      <c r="K8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
@@ -3359,7 +3750,7 @@
       <c r="B9">
         <v>1262.97306631931</v>
       </c>
-      <c r="K9" s="6"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
@@ -3368,7 +3759,7 @@
       <c r="B10">
         <v>1597.67653404455</v>
       </c>
-      <c r="K10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
@@ -3377,7 +3768,7 @@
       <c r="B11">
         <v>1942.8181213881501</v>
       </c>
-      <c r="K11" s="6"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
@@ -3386,7 +3777,7 @@
       <c r="B12">
         <v>2292.59235808208</v>
       </c>
-      <c r="K12" s="6"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
@@ -3395,7 +3786,7 @@
       <c r="B13">
         <v>2642.8207234318702</v>
       </c>
-      <c r="K13" s="6"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
@@ -3404,7 +3795,7 @@
       <c r="B14">
         <v>2990.42827973774</v>
       </c>
-      <c r="K14" s="6"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
@@ -3413,7 +3804,7 @@
       <c r="B15">
         <v>3278.7804197181499</v>
       </c>
-      <c r="K15" s="6"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
@@ -3422,94 +3813,94 @@
       <c r="B16">
         <v>2990.05111032279</v>
       </c>
-      <c r="K16" s="6"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>13.5</v>
       </c>
       <c r="B17">
         <v>3440.0049062599501</v>
       </c>
-      <c r="K17" s="6"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>14.5</v>
       </c>
       <c r="B18">
         <v>6402.4285332448499</v>
       </c>
-      <c r="K18" s="6"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>15.5</v>
       </c>
       <c r="B19">
         <v>8406.2184704750907</v>
       </c>
-      <c r="K19" s="6"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>16.5</v>
       </c>
       <c r="B20">
         <v>10076.552142180701</v>
       </c>
-      <c r="K20" s="6"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>17.5</v>
       </c>
       <c r="B21">
         <v>12065.1148557613</v>
       </c>
-      <c r="K21" s="6"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>18.5</v>
       </c>
       <c r="B22">
         <v>13545.279382107799</v>
       </c>
-      <c r="K22" s="6"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>19.5</v>
       </c>
       <c r="B23">
         <v>15193.5723664255</v>
       </c>
-      <c r="K23" s="6"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B26" s="3">
         <f>SUM(B6:B24)*3*3.14</f>
         <v>849110.70886182331</v>
       </c>
-      <c r="K26" t="s">
-        <v>18</v>
-      </c>
-      <c r="L26" s="3">
-        <f>SUM(L5:L23)*3*3.14</f>
+      <c r="E26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="3">
+        <f>SUM(F5:F23)*3*3.14</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="E3:F3"/>
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="A1:P1"/>
   </mergeCells>
@@ -3521,10 +3912,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AA27"/>
+  <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:O2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3535,67 +3926,72 @@
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="K3" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
+      <c r="A3" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="H3" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -3611,28 +4007,28 @@
         <v>4</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>23</v>
+      <c r="H4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="O4" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -3643,7 +4039,7 @@
         <v>11082.220890479201</v>
       </c>
       <c r="C5" s="12">
-        <v>61947.5529174521</v>
+        <v>75885.752323878798</v>
       </c>
       <c r="D5" s="13">
         <v>0.11068015974965301</v>
@@ -3652,14 +4048,14 @@
         <v>10744858.132003199</v>
       </c>
       <c r="F5" s="12">
-        <v>60061757.864312001</v>
-      </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
+        <v>73575653.383782193</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
@@ -3669,7 +4065,7 @@
         <v>41733.484761313397</v>
       </c>
       <c r="C6" s="12">
-        <v>102253.02311017401</v>
+        <v>125259.953309964</v>
       </c>
       <c r="D6" s="13">
         <v>0.100865090269768</v>
@@ -3678,14 +4074,14 @@
         <v>36874796.959643602</v>
       </c>
       <c r="F6" s="12">
-        <v>90348541.159752399</v>
-      </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
+        <v>110676962.920697</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
@@ -3695,7 +4091,7 @@
         <v>82294.881853811195</v>
       </c>
       <c r="C7" s="12">
-        <v>157079.63267948999</v>
+        <v>192422.550032375</v>
       </c>
       <c r="D7" s="13">
         <v>8.7525511639071296E-2</v>
@@ -3704,14 +4100,14 @@
         <v>63097418.362298101</v>
       </c>
       <c r="F7" s="12">
-        <v>120436642.912744</v>
-      </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
+        <v>147534887.568111</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
@@ -3721,23 +4117,23 @@
         <v>131736.58962605201</v>
       </c>
       <c r="C8" s="12">
-        <v>228661.40306795001</v>
+        <v>280110.218758239</v>
       </c>
       <c r="D8" s="13">
         <v>7.2730060767989796E-2</v>
       </c>
       <c r="E8" s="12">
-        <v>83931401.079305604</v>
+        <v>83931401.0793055</v>
       </c>
       <c r="F8" s="12">
-        <v>145683685.80612999</v>
-      </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
+        <v>178462515.11251</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
@@ -3747,7 +4143,7 @@
         <v>186961.13923568901</v>
       </c>
       <c r="C9" s="12">
-        <v>319232.355718109</v>
+        <v>391059.63575468399</v>
       </c>
       <c r="D9" s="13">
         <v>5.81010029376611E-2</v>
@@ -3756,14 +4152,14 @@
         <v>95156636.171660498</v>
       </c>
       <c r="F9" s="12">
-        <v>162478027.527399</v>
-      </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
+        <v>199035583.721064</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
@@ -3773,7 +4169,7 @@
         <v>250690.25476569001</v>
       </c>
       <c r="C10" s="12">
-        <v>431026.51207251998</v>
+        <v>528007.47728883696</v>
       </c>
       <c r="D10" s="13">
         <v>4.4749389778345798E-2</v>
@@ -3782,14 +4178,14 @@
         <v>98271746.695489794</v>
       </c>
       <c r="F10" s="12">
-        <v>168964398.927358</v>
-      </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
+        <v>206981388.686014</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
@@ -3799,7 +4195,7 @@
         <v>321217.634918847</v>
       </c>
       <c r="C11" s="12">
-        <v>566277.89357373398</v>
+        <v>693690.41962782398</v>
       </c>
       <c r="D11" s="13">
         <v>3.3301902577265299E-2</v>
@@ -3808,14 +4204,14 @@
         <v>93707107.445303097</v>
       </c>
       <c r="F11" s="12">
-        <v>165197229.692635</v>
-      </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
+        <v>202366606.373478</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
@@ -3825,7 +4221,7 @@
         <v>397575.10375054402</v>
       </c>
       <c r="C12" s="12">
-        <v>727220.52166430396</v>
+        <v>890845.13903877197</v>
       </c>
       <c r="D12" s="13">
         <v>2.3986723148667E-2</v>
@@ -3834,14 +4230,14 @@
         <v>83539949.753529698</v>
       </c>
       <c r="F12" s="12">
-        <v>152806262.93363199</v>
-      </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
+        <v>187187672.09369901</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
@@ -3851,23 +4247,23 @@
         <v>478750.22153177101</v>
       </c>
       <c r="C13" s="12">
-        <v>916088.417786784</v>
+        <v>1122208.31178881</v>
       </c>
       <c r="D13" s="13">
         <v>1.67452103568295E-2</v>
       </c>
       <c r="E13" s="12">
-        <v>70226932.951051295</v>
+        <v>70226932.951051205</v>
       </c>
       <c r="F13" s="12">
-        <v>134379216.96894199</v>
-      </c>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
+        <v>164614540.78695399</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
@@ -3877,7 +4273,7 @@
         <v>559916.45550766401</v>
       </c>
       <c r="C14" s="12">
-        <v>1135115.6033837299</v>
+        <v>1390516.6141450601</v>
       </c>
       <c r="D14" s="13">
         <v>1.13428188707436E-2</v>
@@ -3886,24 +4282,24 @@
         <v>55635031.013132699</v>
       </c>
       <c r="F14" s="12">
-        <v>112788597.61406</v>
-      </c>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
+        <v>138166032.077223</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>15.5</v>
       </c>
       <c r="B15" s="12">
-        <v>638004.14921342896</v>
+        <v>638004.14921342803</v>
       </c>
       <c r="C15" s="12">
-        <v>1386536.0998976801</v>
+        <v>1698506.72237466</v>
       </c>
       <c r="D15" s="13">
         <v>7.4623591449101898E-3</v>
@@ -3912,24 +4308,24 @@
         <v>41706501.0129916</v>
       </c>
       <c r="F15" s="12">
-        <v>90638233.820619404</v>
-      </c>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
+        <v>111031836.430259</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>16.5</v>
       </c>
       <c r="B16" s="12">
-        <v>709748.37077522394</v>
+        <v>709748.37077522301</v>
       </c>
       <c r="C16" s="12">
-        <v>1672583.9287712099</v>
+        <v>2048915.3127447299</v>
       </c>
       <c r="D16" s="13">
         <v>4.7720994397246301E-3</v>
@@ -3938,16 +4334,16 @@
         <v>29670030.670091901</v>
       </c>
       <c r="F16" s="12">
-        <v>69920014.625381798</v>
-      </c>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+        <v>85652017.916092694</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>17.5</v>
       </c>
@@ -3955,7 +4351,7 @@
         <v>770569.075954161</v>
       </c>
       <c r="C17" s="12">
-        <v>1995493.11144685</v>
+        <v>2444479.0615223902</v>
       </c>
       <c r="D17" s="13">
         <v>2.9684303285226199E-3</v>
@@ -3964,172 +4360,172 @@
         <v>20037454.189887699</v>
       </c>
       <c r="F17" s="12">
-        <v>51889704.706020698</v>
-      </c>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+        <v>63564888.264875397</v>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>18.5</v>
       </c>
       <c r="B18" s="12">
-        <v>816655.93169255299</v>
+        <v>816655.93169254996</v>
       </c>
       <c r="C18" s="12">
-        <v>2357497.66936717</v>
+        <v>2887934.6449747798</v>
       </c>
       <c r="D18" s="13">
         <v>1.7971987782490701E-3</v>
       </c>
       <c r="E18" s="12">
-        <v>12856991.0539444</v>
+        <v>12856991.053944301</v>
       </c>
       <c r="F18" s="12">
-        <v>37115173.316538498</v>
-      </c>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+        <v>45466087.312759697</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>19.5</v>
       </c>
       <c r="B19" s="12">
-        <v>843567.15161122102</v>
+        <v>843567.15161121299</v>
       </c>
       <c r="C19" s="12">
-        <v>2760831.6239747098</v>
+        <v>3382018.7393690199</v>
       </c>
       <c r="D19" s="13">
         <v>1.0596300187325899E-3</v>
       </c>
       <c r="E19" s="12">
-        <v>7830293.1115765702</v>
+        <v>7830293.1115765003</v>
       </c>
       <c r="F19" s="12">
-        <v>25627030.1731654</v>
-      </c>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+        <v>31393111.9621276</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>20.5</v>
       </c>
       <c r="B20" s="12">
-        <v>855869.38882472797</v>
+        <v>855869.38882471703</v>
       </c>
       <c r="C20" s="12">
-        <v>3207728.9967120299</v>
+        <v>3929468.0209722398</v>
       </c>
       <c r="D20" s="13">
         <v>6.0871346989075802E-4</v>
       </c>
       <c r="E20" s="12">
-        <v>4563778.0148962904</v>
+        <v>4563778.0148962298</v>
       </c>
       <c r="F20" s="12">
-        <v>17104669.5489861</v>
-      </c>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+        <v>20953220.197508</v>
+      </c>
+      <c r="H20" s="11"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>21.5</v>
       </c>
       <c r="B21" s="12">
-        <v>844734.32815885497</v>
+        <v>844734.32815884403</v>
       </c>
       <c r="C21" s="12">
-        <v>3700423.8090216802</v>
+        <v>4533019.1660515601</v>
       </c>
       <c r="D21" s="13">
         <v>3.4084945285830002E-4</v>
       </c>
       <c r="E21" s="12">
-        <v>2522242.5660168701</v>
+        <v>2522242.56601683</v>
       </c>
       <c r="F21" s="12">
-        <v>11048877.892484101</v>
-      </c>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+        <v>13534875.418292999</v>
+      </c>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>22.5</v>
       </c>
       <c r="B22" s="12">
-        <v>800588.31296659005</v>
+        <v>800588.31296658202</v>
       </c>
       <c r="C22" s="12">
-        <v>4241150.0823462196</v>
+        <v>5195408.8508741204</v>
       </c>
       <c r="D22" s="13">
         <v>1.8611271272152199E-4</v>
       </c>
       <c r="E22" s="12">
-        <v>1305237.0452463799</v>
+        <v>1305237.0452463699</v>
       </c>
       <c r="F22" s="12">
-        <v>6914547.8547087498</v>
-      </c>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+        <v>8470321.1220182106</v>
+      </c>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>23.5</v>
       </c>
       <c r="B23" s="12">
-        <v>753909.20100765896</v>
+        <v>753909.20100765803</v>
       </c>
       <c r="C23" s="12">
-        <v>4832141.8381281896</v>
+        <v>5919373.7517070398</v>
       </c>
       <c r="D23" s="13">
         <v>9.9131303091395403E-5</v>
       </c>
       <c r="E23" s="12">
-        <v>654687.37321430305</v>
+        <v>654687.37321430095</v>
       </c>
       <c r="F23" s="12">
-        <v>4196184.6901122201</v>
-      </c>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+        <v>5140326.2453874703</v>
+      </c>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>24.5</v>
       </c>
@@ -4137,52 +4533,52 @@
         <v>746834.37975413399</v>
       </c>
       <c r="C24" s="12">
-        <v>5475633.0978101604</v>
+        <v>6707650.5448174402</v>
       </c>
       <c r="D24" s="13">
         <v>5.1524232670873199E-5</v>
       </c>
       <c r="E24" s="12">
-        <v>337085.39873775898</v>
+        <v>337085.39873776003</v>
       </c>
       <c r="F24" s="12">
-        <v>2471439.47326669</v>
-      </c>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+        <v>3027513.3547516898</v>
+      </c>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="10"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
-      <c r="K25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="10"/>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
-      <c r="AA27" s="1"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A3:F3"/>
-    <mergeCell ref="K3:P3"/>
+    <mergeCell ref="H3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
